--- a/Instances/G5047313_NonStationary_b4_fe25_el_rk50_ll2_l40_HTrue_c0.xlsx
+++ b/Instances/G5047313_NonStationary_b4_fe25_el_rk50_ll2_l40_HTrue_c0.xlsx
@@ -489,7 +489,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -521,7 +521,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="n">
-        <v>8.875861672794118</v>
+        <v>9.398193359375</v>
       </c>
       <c r="I2" t="n">
         <v>448</v>
@@ -1018,7 +1018,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>4.193287568933823</v>
+        <v>4.87490234375</v>
       </c>
       <c r="I3" t="n">
         <v>496</v>
@@ -1068,7 +1068,7 @@
         <v>50</v>
       </c>
       <c r="H4" t="n">
-        <v>6.758487477022059</v>
+        <v>7.211018880208333</v>
       </c>
       <c r="I4" t="n">
         <v>492</v>
@@ -1100,7 +1100,7 @@
         <v>100</v>
       </c>
       <c r="H5" t="n">
-        <v>14.37277401194853</v>
+        <v>13.48546549479167</v>
       </c>
       <c r="I5" t="n">
         <v>444</v>
@@ -1146,7 +1146,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1242,7 +1242,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1532,16 +1532,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1567,16 +1567,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1602,16 +1602,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C9" t="n">
+        <v>24</v>
+      </c>
+      <c r="D9" t="n">
         <v>55</v>
       </c>
-      <c r="D9" t="n">
-        <v>49</v>
-      </c>
       <c r="E9" t="n">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1637,16 +1637,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="C10" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D10" t="n">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="E10" t="n">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1672,16 +1672,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C11" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D11" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E11" t="n">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1707,16 +1707,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="C12" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D12" t="n">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="E12" t="n">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1742,16 +1742,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="C13" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D13" t="n">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="E13" t="n">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1777,16 +1777,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C14" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E14" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="C15" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D15" t="n">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="E15" t="n">
-        <v>206</v>
+        <v>73</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1847,17 +1847,17 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C16" t="n">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D16" t="n">
+        <v>63</v>
+      </c>
+      <c r="E16" t="n">
         <v>55</v>
       </c>
-      <c r="E16" t="n">
-        <v>121</v>
-      </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
@@ -1874,76 +1874,6 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>83</v>
-      </c>
-      <c r="C17" t="n">
-        <v>6</v>
-      </c>
-      <c r="D17" t="n">
-        <v>73</v>
-      </c>
-      <c r="E17" t="n">
-        <v>19</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>74</v>
-      </c>
-      <c r="C18" t="n">
-        <v>25</v>
-      </c>
-      <c r="D18" t="n">
-        <v>51</v>
-      </c>
-      <c r="E18" t="n">
-        <v>145</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1958,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2143,34 +2073,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2178,34 +2108,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0</v>
+        <v>10.625</v>
       </c>
       <c r="C7" t="n">
-        <v>-0</v>
+        <v>4.875</v>
       </c>
       <c r="D7" t="n">
-        <v>-0</v>
+        <v>5.625</v>
       </c>
       <c r="E7" t="n">
-        <v>-0</v>
+        <v>12.5</v>
       </c>
       <c r="F7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2213,16 +2143,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>6.9375</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>7.3125</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>11.625</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1.875</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -2248,16 +2178,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>13.125</v>
+        <v>9.84375</v>
       </c>
       <c r="C9" t="n">
-        <v>6.875</v>
+        <v>5.25</v>
       </c>
       <c r="D9" t="n">
-        <v>6.125</v>
+        <v>12.03125</v>
       </c>
       <c r="E9" t="n">
-        <v>13.25</v>
+        <v>17.0625</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -2283,16 +2213,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>24</v>
+        <v>10.078125</v>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>10.078125</v>
       </c>
       <c r="D10" t="n">
-        <v>11.0625</v>
+        <v>17.8125</v>
       </c>
       <c r="E10" t="n">
-        <v>12.9375</v>
+        <v>23.4375</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -2318,16 +2248,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>14.4375</v>
+        <v>10.171875</v>
       </c>
       <c r="C11" t="n">
-        <v>6.125</v>
+        <v>5.8125</v>
       </c>
       <c r="D11" t="n">
-        <v>3.28125</v>
+        <v>9.6875</v>
       </c>
       <c r="E11" t="n">
-        <v>22.75</v>
+        <v>28.578125</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -2353,16 +2283,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>17.8125</v>
+        <v>8.12109375</v>
       </c>
       <c r="C12" t="n">
-        <v>5.625</v>
+        <v>7.62890625</v>
       </c>
       <c r="D12" t="n">
-        <v>10.078125</v>
+        <v>15.50390625</v>
       </c>
       <c r="E12" t="n">
-        <v>23.4375</v>
+        <v>33.9609375</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -2388,16 +2318,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.359375</v>
+        <v>22.572265625</v>
       </c>
       <c r="C13" t="n">
-        <v>9.9296875</v>
+        <v>2.728515625</v>
       </c>
       <c r="D13" t="n">
-        <v>15.984375</v>
+        <v>7.9375</v>
       </c>
       <c r="E13" t="n">
-        <v>26.3984375</v>
+        <v>31.75</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -2423,16 +2353,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>11.07421875</v>
+        <v>13.447265625</v>
       </c>
       <c r="C14" t="n">
-        <v>10.3359375</v>
+        <v>7.470703125</v>
       </c>
       <c r="D14" t="n">
-        <v>12.3046875</v>
+        <v>9.2138671875</v>
       </c>
       <c r="E14" t="n">
-        <v>23.37890625</v>
+        <v>21.1669921875</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -2458,16 +2388,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.240234375</v>
+        <v>26.4482421875</v>
       </c>
       <c r="C15" t="n">
-        <v>5.705078125</v>
+        <v>11.4775390625</v>
       </c>
       <c r="D15" t="n">
-        <v>11.41015625</v>
+        <v>2.994140625</v>
       </c>
       <c r="E15" t="n">
-        <v>51.09765625</v>
+        <v>18.21435546875</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -2493,16 +2423,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>25.6494140625</v>
+        <v>22.727783203125</v>
       </c>
       <c r="C16" t="n">
-        <v>12.94921875</v>
+        <v>10.48974609375</v>
       </c>
       <c r="D16" t="n">
-        <v>13.6962890625</v>
+        <v>15.734619140625</v>
       </c>
       <c r="E16" t="n">
-        <v>30.1318359375</v>
+        <v>13.736572265625</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -2520,76 +2450,6 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>20.70947265625</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.4970703125</v>
-      </c>
-      <c r="D17" t="n">
-        <v>18.21435546875</v>
-      </c>
-      <c r="E17" t="n">
-        <v>4.74072265625</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>18.48193359375</v>
-      </c>
-      <c r="C18" t="n">
-        <v>6.243896484375</v>
-      </c>
-      <c r="D18" t="n">
-        <v>12.737548828125</v>
-      </c>
-      <c r="E18" t="n">
-        <v>36.214599609375</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
         <v>0</v>
       </c>
     </row>
